--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -1,89 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Model Results"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
-  <si>
-    <t>RMSE</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Resolution</t>
-  </si>
-  <si>
-    <t>nº samples</t>
-  </si>
-  <si>
-    <t>Batch size</t>
-  </si>
-  <si>
-    <t>Epochs</t>
-  </si>
-  <si>
-    <t>lst, ndvi</t>
-  </si>
-  <si>
-    <t>3 rivers</t>
-  </si>
-  <si>
-    <t>wt</t>
-  </si>
-  <si>
-    <t>la Broye</t>
-  </si>
-  <si>
-    <t>lst</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -106,45 +62,107 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,180 +450,357 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="6" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="13.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="8" width="13.005" customWidth="1" bestFit="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
+    <col width="13.005" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    <row r="1" ht="18" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>Variables</t>
+        </is>
+      </c>
+      <c r="C1" s="7" t="inlineStr">
+        <is>
+          <t>Input</t>
+        </is>
+      </c>
+      <c r="D1" s="7" t="inlineStr">
+        <is>
+          <t>Output</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Resolution</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>nº samples</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Batch size</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Epochs</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1">
+      <c r="A2" s="4" t="n">
+        <v>4.952849388122559</v>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>3 rivers</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="4">
-        <v>4.952849388122559</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="H2" s="5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1">
+      <c r="A3" s="4" t="n">
+        <v>7.593135833740234</v>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>3 rivers</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="G3" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1">
+      <c r="A4" s="1" t="n">
+        <v>9.262160301208496</v>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>3 rivers</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="G4" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="H4" s="3" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1">
+      <c r="A5" s="1" t="n">
+        <v>8.879039764404297</v>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>la Broye</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F5" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H5" s="3" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="n">
+        <v>7.453351020812988</v>
+      </c>
+      <c r="B6" s="7" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="C6" s="7" t="inlineStr">
+        <is>
+          <t>3 rivers</t>
+        </is>
+      </c>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>55</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.748187065124512</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>10 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>256</v>
       </c>
-      <c r="F2" s="5">
-        <v>55</v>
-      </c>
-      <c r="G2" s="5">
+      <c r="F7" t="n">
+        <v>119</v>
+      </c>
+      <c r="G7" t="n">
         <v>4</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="4">
-        <v>7.593135833740234</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.894447326660156</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>10 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>119</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6.04390287399292</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>119</v>
+      </c>
+      <c r="G9" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7.795375347137451</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, ndvi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>256</v>
       </c>
-      <c r="F3" s="5">
-        <v>55</v>
-      </c>
-      <c r="G3" s="5">
-        <v>4</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="F10" t="n">
+        <v>119</v>
+      </c>
+      <c r="G10" t="n">
+        <v>8</v>
+      </c>
+      <c r="H10" t="n">
         <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18">
-      <c r="A4" s="1">
-        <v>9.262160301208496</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3">
-        <v>256</v>
-      </c>
-      <c r="F4" s="3">
-        <v>55</v>
-      </c>
-      <c r="G4" s="3">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18">
-      <c r="A5" s="1">
-        <v>8.879039764404297</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
-        <v>256</v>
-      </c>
-      <c r="F5" s="3">
-        <v>20</v>
-      </c>
-      <c r="G5" s="3">
-        <v>4</v>
-      </c>
-      <c r="H5" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
-      <c r="A6" s="1">
-        <v>7.453351020812988</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3">
-        <v>256</v>
-      </c>
-      <c r="F6" s="3">
-        <v>55</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,198 @@
         <v>30</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>7.242763519287109</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>50 rivers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>381</v>
+      </c>
+      <c r="G24" t="n">
+        <v>4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6.853470802307129</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lst, ndvino label</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>50 rivers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>256</v>
+      </c>
+      <c r="F25" t="n">
+        <v>381</v>
+      </c>
+      <c r="G25" t="n">
+        <v>4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6.823829174041748</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lst, ndvilabel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>50 rivers</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>256</v>
+      </c>
+      <c r="F26" t="n">
+        <v>381</v>
+      </c>
+      <c r="G26" t="n">
+        <v>4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9.040779113769531</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>50 rivers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>256</v>
+      </c>
+      <c r="F27" t="n">
+        <v>381</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6.004575252532959</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lst, ndvi_discharge_slope, label</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22 rivers</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>256</v>
+      </c>
+      <c r="F28" t="n">
+        <v>204</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>7.04119873046875</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lst, ndvi_discharge_slope, label</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>22 rivers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>256</v>
+      </c>
+      <c r="F29" t="n">
+        <v>204</v>
+      </c>
+      <c r="G29" t="n">
+        <v>4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,6 +1411,230 @@
         <v>50</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.996178507804871</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>479</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.837690591812134</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>256</v>
+      </c>
+      <c r="F31" t="n">
+        <v>479</v>
+      </c>
+      <c r="G31" t="n">
+        <v>32</v>
+      </c>
+      <c r="H31" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2.006350040435791</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>479</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8</v>
+      </c>
+      <c r="H32" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.736640810966492</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>479</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H33" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.934394955635071</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>479</v>
+      </c>
+      <c r="G34" t="n">
+        <v>64</v>
+      </c>
+      <c r="H34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.829948306083679</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>256</v>
+      </c>
+      <c r="F35" t="n">
+        <v>479</v>
+      </c>
+      <c r="G35" t="n">
+        <v>16</v>
+      </c>
+      <c r="H35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.821159482002258</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>479</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1411,6 +1411,838 @@
         <v>50</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.9087221026420593</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.957648038864136</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>256</v>
+      </c>
+      <c r="F31" t="n">
+        <v>14</v>
+      </c>
+      <c r="G31" t="n">
+        <v>4</v>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.420172333717346</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>14</v>
+      </c>
+      <c r="G32" t="n">
+        <v>4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11.09649562835693</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>14</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>18.07573318481445</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>14</v>
+      </c>
+      <c r="G34" t="n">
+        <v>4</v>
+      </c>
+      <c r="H34" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.296569466590881</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>256</v>
+      </c>
+      <c r="F35" t="n">
+        <v>14</v>
+      </c>
+      <c r="G35" t="n">
+        <v>4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.2691506445407867</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>14</v>
+      </c>
+      <c r="G36" t="n">
+        <v>4</v>
+      </c>
+      <c r="H36" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.978485584259033</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>256</v>
+      </c>
+      <c r="F37" t="n">
+        <v>14</v>
+      </c>
+      <c r="G37" t="n">
+        <v>4</v>
+      </c>
+      <c r="H37" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>1.232069969177246</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>256</v>
+      </c>
+      <c r="F38" t="n">
+        <v>14</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2177338153123856</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>256</v>
+      </c>
+      <c r="F39" t="n">
+        <v>14</v>
+      </c>
+      <c r="G39" t="n">
+        <v>8</v>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>18.74329376220703</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>256</v>
+      </c>
+      <c r="F40" t="n">
+        <v>14</v>
+      </c>
+      <c r="G40" t="n">
+        <v>8</v>
+      </c>
+      <c r="H40" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>9.118706703186035</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>256</v>
+      </c>
+      <c r="F41" t="n">
+        <v>14</v>
+      </c>
+      <c r="G41" t="n">
+        <v>8</v>
+      </c>
+      <c r="H41" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11.0558910369873</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>256</v>
+      </c>
+      <c r="F42" t="n">
+        <v>14</v>
+      </c>
+      <c r="G42" t="n">
+        <v>8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.8481537699699402</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>256</v>
+      </c>
+      <c r="F43" t="n">
+        <v>14</v>
+      </c>
+      <c r="G43" t="n">
+        <v>8</v>
+      </c>
+      <c r="H43" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.7489300966262817</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>256</v>
+      </c>
+      <c r="F44" t="n">
+        <v>14</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3.953965425491333</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>256</v>
+      </c>
+      <c r="F45" t="n">
+        <v>14</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>7.902534484863281</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>256</v>
+      </c>
+      <c r="F46" t="n">
+        <v>14</v>
+      </c>
+      <c r="G46" t="n">
+        <v>16</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2.911223411560059</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>256</v>
+      </c>
+      <c r="F47" t="n">
+        <v>14</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16</v>
+      </c>
+      <c r="H47" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.790535449981689</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>256</v>
+      </c>
+      <c r="F48" t="n">
+        <v>14</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16</v>
+      </c>
+      <c r="H48" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>8.69633674621582</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>256</v>
+      </c>
+      <c r="F49" t="n">
+        <v>14</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>8.763372421264648</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>256</v>
+      </c>
+      <c r="F50" t="n">
+        <v>14</v>
+      </c>
+      <c r="G50" t="n">
+        <v>32</v>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3.954779148101807</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>256</v>
+      </c>
+      <c r="F51" t="n">
+        <v>14</v>
+      </c>
+      <c r="G51" t="n">
+        <v>32</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>4.503135204315186</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>256</v>
+      </c>
+      <c r="F52" t="n">
+        <v>14</v>
+      </c>
+      <c r="G52" t="n">
+        <v>32</v>
+      </c>
+      <c r="H52" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.4888379871845245</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>256</v>
+      </c>
+      <c r="F53" t="n">
+        <v>14</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32</v>
+      </c>
+      <c r="H53" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3.995958805084229</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>256</v>
+      </c>
+      <c r="F54" t="n">
+        <v>14</v>
+      </c>
+      <c r="G54" t="n">
+        <v>32</v>
+      </c>
+      <c r="H54" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.6190417408943176</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>7 rivers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>256</v>
+      </c>
+      <c r="F55" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" t="n">
+        <v>32</v>
+      </c>
+      <c r="H55" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Model Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2243,6 +2243,870 @@
         <v>100</v>
       </c>
     </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>1.724864363670349</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>256</v>
+      </c>
+      <c r="F56" t="n">
+        <v>479</v>
+      </c>
+      <c r="G56" t="n">
+        <v>4</v>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>1.374248623847961</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>256</v>
+      </c>
+      <c r="F57" t="n">
+        <v>479</v>
+      </c>
+      <c r="G57" t="n">
+        <v>4</v>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>1.863625049591064</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>256</v>
+      </c>
+      <c r="F58" t="n">
+        <v>479</v>
+      </c>
+      <c r="G58" t="n">
+        <v>4</v>
+      </c>
+      <c r="H58" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2.008822917938232</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>256</v>
+      </c>
+      <c r="F59" t="n">
+        <v>479</v>
+      </c>
+      <c r="G59" t="n">
+        <v>4</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2.259030818939209</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>256</v>
+      </c>
+      <c r="F60" t="n">
+        <v>479</v>
+      </c>
+      <c r="G60" t="n">
+        <v>4</v>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.573476791381836</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>256</v>
+      </c>
+      <c r="F61" t="n">
+        <v>479</v>
+      </c>
+      <c r="G61" t="n">
+        <v>4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1.611523270606995</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>256</v>
+      </c>
+      <c r="F62" t="n">
+        <v>479</v>
+      </c>
+      <c r="G62" t="n">
+        <v>4</v>
+      </c>
+      <c r="H62" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.891908049583435</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>256</v>
+      </c>
+      <c r="F63" t="n">
+        <v>479</v>
+      </c>
+      <c r="G63" t="n">
+        <v>4</v>
+      </c>
+      <c r="H63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.791244506835938</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>256</v>
+      </c>
+      <c r="F64" t="n">
+        <v>479</v>
+      </c>
+      <c r="G64" t="n">
+        <v>4</v>
+      </c>
+      <c r="H64" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>1.855995178222656</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>256</v>
+      </c>
+      <c r="F65" t="n">
+        <v>479</v>
+      </c>
+      <c r="G65" t="n">
+        <v>8</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>1.367603540420532</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>256</v>
+      </c>
+      <c r="F66" t="n">
+        <v>479</v>
+      </c>
+      <c r="G66" t="n">
+        <v>8</v>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.809185147285461</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>256</v>
+      </c>
+      <c r="F67" t="n">
+        <v>479</v>
+      </c>
+      <c r="G67" t="n">
+        <v>8</v>
+      </c>
+      <c r="H67" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2.419947147369385</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>256</v>
+      </c>
+      <c r="F68" t="n">
+        <v>479</v>
+      </c>
+      <c r="G68" t="n">
+        <v>8</v>
+      </c>
+      <c r="H68" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>1.863962650299072</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>256</v>
+      </c>
+      <c r="F69" t="n">
+        <v>479</v>
+      </c>
+      <c r="G69" t="n">
+        <v>8</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>1.7098388671875</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>256</v>
+      </c>
+      <c r="F70" t="n">
+        <v>479</v>
+      </c>
+      <c r="G70" t="n">
+        <v>8</v>
+      </c>
+      <c r="H70" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>1.885207653045654</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>256</v>
+      </c>
+      <c r="F71" t="n">
+        <v>479</v>
+      </c>
+      <c r="G71" t="n">
+        <v>16</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1.729468107223511</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>256</v>
+      </c>
+      <c r="F72" t="n">
+        <v>479</v>
+      </c>
+      <c r="G72" t="n">
+        <v>16</v>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.590883612632751</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>256</v>
+      </c>
+      <c r="F73" t="n">
+        <v>479</v>
+      </c>
+      <c r="G73" t="n">
+        <v>16</v>
+      </c>
+      <c r="H73" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>2.020931720733643</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>256</v>
+      </c>
+      <c r="F74" t="n">
+        <v>479</v>
+      </c>
+      <c r="G74" t="n">
+        <v>16</v>
+      </c>
+      <c r="H74" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.774887919425964</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>256</v>
+      </c>
+      <c r="F75" t="n">
+        <v>479</v>
+      </c>
+      <c r="G75" t="n">
+        <v>16</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>2.103008508682251</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>256</v>
+      </c>
+      <c r="F76" t="n">
+        <v>479</v>
+      </c>
+      <c r="G76" t="n">
+        <v>16</v>
+      </c>
+      <c r="H76" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.87752902507782</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>256</v>
+      </c>
+      <c r="F77" t="n">
+        <v>479</v>
+      </c>
+      <c r="G77" t="n">
+        <v>32</v>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.832067966461182</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>256</v>
+      </c>
+      <c r="F78" t="n">
+        <v>479</v>
+      </c>
+      <c r="G78" t="n">
+        <v>32</v>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.878180980682373</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>256</v>
+      </c>
+      <c r="F79" t="n">
+        <v>479</v>
+      </c>
+      <c r="G79" t="n">
+        <v>32</v>
+      </c>
+      <c r="H79" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.714842438697815</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>256</v>
+      </c>
+      <c r="F80" t="n">
+        <v>479</v>
+      </c>
+      <c r="G80" t="n">
+        <v>32</v>
+      </c>
+      <c r="H80" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.712054848670959</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>lst, , no label</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>256</v>
+      </c>
+      <c r="F81" t="n">
+        <v>479</v>
+      </c>
+      <c r="G81" t="n">
+        <v>32</v>
+      </c>
+      <c r="H81" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.706390976905823</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>lst, , label</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>256</v>
+      </c>
+      <c r="F82" t="n">
+        <v>479</v>
+      </c>
+      <c r="G82" t="n">
+        <v>32</v>
+      </c>
+      <c r="H82" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,803 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.112088680267334</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>256</v>
+      </c>
+      <c r="F3" t="n">
+        <v>479</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>14:25:09</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>123.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.242329359054565</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>256</v>
+      </c>
+      <c r="F4" t="n">
+        <v>479</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>14:27:08</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>116.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.460193395614624</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>256</v>
+      </c>
+      <c r="F5" t="n">
+        <v>479</v>
+      </c>
+      <c r="G5" t="n">
+        <v>8</v>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>14:29:14</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>123.09</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.624142527580261</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>479</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>14:31:22</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>125.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.818571805953979</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, discharge_slope, no label</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>479</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.498376131057739</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>479</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>100</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>14:33:56</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>152.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.528201818466187</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>479</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14:36:31</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>152.07</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.747366189956665</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>479</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>14:38:08</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>94.84999999999999</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.615783095359802</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>479</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>14:39:42</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>91.95999999999999</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.462688326835632</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>479</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>14:41:50</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>124.87</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.287092447280884</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>479</v>
+      </c>
+      <c r="G13" t="n">
+        <v>16</v>
+      </c>
+      <c r="H13" t="n">
+        <v>50</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>14:44:17</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>145.25</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1.452772259712219</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>479</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>100</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>14:46:30</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>130.38</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1.187764763832092</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>479</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>100</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>14:49:12</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2.02158260345459</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>479</v>
+      </c>
+      <c r="G16" t="n">
+        <v>32</v>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>14:51:10</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>116.29</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.739898562431335</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>479</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>14:52:58</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>105.46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1.215425252914429</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>479</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>14:54:58</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>116.92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.165908217430115</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>479</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>50</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>14:56:55</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>115.4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1.536139965057373</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>256</v>
+      </c>
+      <c r="F20" t="n">
+        <v>479</v>
+      </c>
+      <c r="G20" t="n">
+        <v>32</v>
+      </c>
+      <c r="H20" t="n">
+        <v>100</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>14:59:12</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>133.79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1292,6 +1292,51 @@
         <v>133.79</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1.362651586532593</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lst, lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>256</v>
+      </c>
+      <c r="F21" t="n">
+        <v>479</v>
+      </c>
+      <c r="G21" t="n">
+        <v>32</v>
+      </c>
+      <c r="H21" t="n">
+        <v>100</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>15:01:29</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>135.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,6 +1337,816 @@
         <v>135.23</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>1.802225947380066</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>256</v>
+      </c>
+      <c r="F22" t="n">
+        <v>479</v>
+      </c>
+      <c r="G22" t="n">
+        <v>8</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>09:41:41</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>213.21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.818026900291443</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>256</v>
+      </c>
+      <c r="F23" t="n">
+        <v>479</v>
+      </c>
+      <c r="G23" t="n">
+        <v>8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>09:45:14</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>211.22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.962723016738892</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>479</v>
+      </c>
+      <c r="G24" t="n">
+        <v>8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>09:49:02</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>226.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.022331237792969</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>256</v>
+      </c>
+      <c r="F25" t="n">
+        <v>479</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8</v>
+      </c>
+      <c r="H25" t="n">
+        <v>50</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>09:52:49</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>225.2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.858957171440125</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>256</v>
+      </c>
+      <c r="F26" t="n">
+        <v>479</v>
+      </c>
+      <c r="G26" t="n">
+        <v>8</v>
+      </c>
+      <c r="H26" t="n">
+        <v>100</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>09:56:54</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>243.75</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.003800868988037</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>256</v>
+      </c>
+      <c r="F27" t="n">
+        <v>479</v>
+      </c>
+      <c r="G27" t="n">
+        <v>8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>100</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>10:01:01</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>245.38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.720741152763367</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>256</v>
+      </c>
+      <c r="F28" t="n">
+        <v>479</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>10:04:33</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>209.83</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.7832270860672</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>256</v>
+      </c>
+      <c r="F29" t="n">
+        <v>479</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>10:08:03</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>208.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.996487617492676</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>479</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+      <c r="H30" t="n">
+        <v>50</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>10:11:45</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>221.09</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.87358832359314</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>256</v>
+      </c>
+      <c r="F31" t="n">
+        <v>479</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>50</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>10:15:28</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>221.35</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.906256198883057</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>479</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>10:19:28</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>237.88</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2.089373111724854</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>479</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>10:23:35</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>245.16</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.875158429145813</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>479</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>10:27:06</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>209.52</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.920016765594482</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>256</v>
+      </c>
+      <c r="F35" t="n">
+        <v>479</v>
+      </c>
+      <c r="G35" t="n">
+        <v>32</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>10:30:37</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>209.25</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.905181646347046</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>479</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>50</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>10:34:20</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>221.1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.998823046684265</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>256</v>
+      </c>
+      <c r="F37" t="n">
+        <v>479</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>10:38:01</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>220.05</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2.038758516311646</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>256</v>
+      </c>
+      <c r="F38" t="n">
+        <v>479</v>
+      </c>
+      <c r="G38" t="n">
+        <v>32</v>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>10:42:01</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>238.41</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>1.953229188919067</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label, stratified</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>256</v>
+      </c>
+      <c r="F39" t="n">
+        <v>479</v>
+      </c>
+      <c r="G39" t="n">
+        <v>32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>10:46:01</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>238.32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2147,6 +2147,406 @@
         <v>238.32</v>
       </c>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>1.7184739112854</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>256</v>
+      </c>
+      <c r="F40" t="n">
+        <v>479</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>15:52:57</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>219.02</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.61290967464447</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>256</v>
+      </c>
+      <c r="F41" t="n">
+        <v>479</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>16:08:17</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>220.84</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.571054339408875</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>256</v>
+      </c>
+      <c r="F42" t="n">
+        <v>479</v>
+      </c>
+      <c r="G42" t="n">
+        <v>16</v>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>16:18:20</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>223.17</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.708486199378967</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>256</v>
+      </c>
+      <c r="F43" t="n">
+        <v>479</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16</v>
+      </c>
+      <c r="H43" t="n">
+        <v>50</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>16:22:54</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>272.71</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.702191472053528</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>256</v>
+      </c>
+      <c r="F44" t="n">
+        <v>479</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>16:28:40</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>343.69</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.774301886558533</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>256</v>
+      </c>
+      <c r="F45" t="n">
+        <v>479</v>
+      </c>
+      <c r="G45" t="n">
+        <v>32</v>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>16:32:14</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>212.53</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.664466738700867</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>256</v>
+      </c>
+      <c r="F46" t="n">
+        <v>479</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+      <c r="H46" t="n">
+        <v>50</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>16:36:28</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>251.83</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.65800666809082</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>256</v>
+      </c>
+      <c r="F47" t="n">
+        <v>479</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32</v>
+      </c>
+      <c r="H47" t="n">
+        <v>100</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>16:41:34</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>305.05</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L47"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2547,6 +2547,356 @@
         </is>
       </c>
     </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2.224150896072388</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label, stratified</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>256</v>
+      </c>
+      <c r="F48" t="n">
+        <v>479</v>
+      </c>
+      <c r="G48" t="n">
+        <v>16</v>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>16:55:13</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>127.48</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2.04633355140686</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>256</v>
+      </c>
+      <c r="F49" t="n">
+        <v>479</v>
+      </c>
+      <c r="G49" t="n">
+        <v>16</v>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>17:01:14</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>125.87</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>1.942922592163086</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>256</v>
+      </c>
+      <c r="F50" t="n">
+        <v>479</v>
+      </c>
+      <c r="G50" t="n">
+        <v>16</v>
+      </c>
+      <c r="H50" t="n">
+        <v>50</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>17:04:42</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>205.55</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>1.744303584098816</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>256</v>
+      </c>
+      <c r="F51" t="n">
+        <v>479</v>
+      </c>
+      <c r="G51" t="n">
+        <v>16</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>17:10:02</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>316.6</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2.071804046630859</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>256</v>
+      </c>
+      <c r="F52" t="n">
+        <v>479</v>
+      </c>
+      <c r="G52" t="n">
+        <v>32</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>17:12:01</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>116.88</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>1.675866603851318</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>256</v>
+      </c>
+      <c r="F53" t="n">
+        <v>479</v>
+      </c>
+      <c r="G53" t="n">
+        <v>32</v>
+      </c>
+      <c r="H53" t="n">
+        <v>50</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>17:14:53</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>169.61</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>1.792689442634583</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>24 rivers</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>256</v>
+      </c>
+      <c r="F54" t="n">
+        <v>479</v>
+      </c>
+      <c r="G54" t="n">
+        <v>32</v>
+      </c>
+      <c r="H54" t="n">
+        <v>100</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>17:18:57</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>241.39</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,6 +683,3506 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3.624424695968628</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>147</v>
+      </c>
+      <c r="G6" t="n">
+        <v>32</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>16:58:37</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>76.81999999999999</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3.803420543670654</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>147</v>
+      </c>
+      <c r="G7" t="n">
+        <v>32</v>
+      </c>
+      <c r="H7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>17:00:11</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>93.75</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3.606398582458496</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>17:01:12</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>61.02</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3.634677648544312</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>147</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>17:02:39</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>86.47</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3.773883819580078</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>147</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>100</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>17:04:32</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>111.61</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3.599435329437256</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>147</v>
+      </c>
+      <c r="G11" t="n">
+        <v>32</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>17:05:33</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>60.39</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>3.642707347869873</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>147</v>
+      </c>
+      <c r="G12" t="n">
+        <v>32</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>17:06:50</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>77.26000000000001</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>3.665226459503174</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>147</v>
+      </c>
+      <c r="G13" t="n">
+        <v>32</v>
+      </c>
+      <c r="H13" t="n">
+        <v>100</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>17:08:27</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>95.84</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>3.610826969146729</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>147</v>
+      </c>
+      <c r="G14" t="n">
+        <v>16</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17:09:33</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>3.641751050949097</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>147</v>
+      </c>
+      <c r="G15" t="n">
+        <v>16</v>
+      </c>
+      <c r="H15" t="n">
+        <v>50</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>17:10:59</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>84.86</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>3.629013299942017</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>256</v>
+      </c>
+      <c r="F16" t="n">
+        <v>147</v>
+      </c>
+      <c r="G16" t="n">
+        <v>16</v>
+      </c>
+      <c r="H16" t="n">
+        <v>100</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17:12:52</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>112.67</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>3.59924578666687</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>256</v>
+      </c>
+      <c r="F17" t="n">
+        <v>147</v>
+      </c>
+      <c r="G17" t="n">
+        <v>32</v>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>17:13:52</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>59.08</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>3.653007745742798</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>256</v>
+      </c>
+      <c r="F18" t="n">
+        <v>147</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
+        <v>50</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>17:15:08</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>75.18000000000001</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>3.65248966217041</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>256</v>
+      </c>
+      <c r="F19" t="n">
+        <v>147</v>
+      </c>
+      <c r="G19" t="n">
+        <v>32</v>
+      </c>
+      <c r="H19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>17:16:47</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>98.77</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>3.601340293884277</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>256</v>
+      </c>
+      <c r="F20" t="n">
+        <v>147</v>
+      </c>
+      <c r="G20" t="n">
+        <v>16</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>17:17:52</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>64.03</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>3.678736448287964</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>256</v>
+      </c>
+      <c r="F21" t="n">
+        <v>147</v>
+      </c>
+      <c r="G21" t="n">
+        <v>16</v>
+      </c>
+      <c r="H21" t="n">
+        <v>50</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>17:19:13</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>80.73999999999999</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.679067134857178</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>256</v>
+      </c>
+      <c r="F22" t="n">
+        <v>147</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16</v>
+      </c>
+      <c r="H22" t="n">
+        <v>100</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>17:20:57</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>103.92</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>3.589860677719116</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>256</v>
+      </c>
+      <c r="F23" t="n">
+        <v>147</v>
+      </c>
+      <c r="G23" t="n">
+        <v>32</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>17:21:57</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>3.623382806777954</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>256</v>
+      </c>
+      <c r="F24" t="n">
+        <v>147</v>
+      </c>
+      <c r="G24" t="n">
+        <v>32</v>
+      </c>
+      <c r="H24" t="n">
+        <v>50</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>17:23:10</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>71.95</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>3.792582750320435</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>256</v>
+      </c>
+      <c r="F25" t="n">
+        <v>147</v>
+      </c>
+      <c r="G25" t="n">
+        <v>32</v>
+      </c>
+      <c r="H25" t="n">
+        <v>100</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>2024-10-30</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>17:24:41</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>91.38</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.674090147018433</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>256</v>
+      </c>
+      <c r="F26" t="n">
+        <v>147</v>
+      </c>
+      <c r="G26" t="n">
+        <v>16</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>09:20:38</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>3.712287664413452</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>256</v>
+      </c>
+      <c r="F27" t="n">
+        <v>147</v>
+      </c>
+      <c r="G27" t="n">
+        <v>16</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>09:21:40</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>62.04</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Physics-guided</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>3.746084451675415</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>256</v>
+      </c>
+      <c r="F28" t="n">
+        <v>147</v>
+      </c>
+      <c r="G28" t="n">
+        <v>16</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>09:36:47</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>69.56999999999999</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>3.768811941146851</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>256</v>
+      </c>
+      <c r="F29" t="n">
+        <v>147</v>
+      </c>
+      <c r="G29" t="n">
+        <v>16</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>09:37:54</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>66.11</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3.758808612823486</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>256</v>
+      </c>
+      <c r="F30" t="n">
+        <v>147</v>
+      </c>
+      <c r="G30" t="n">
+        <v>16</v>
+      </c>
+      <c r="H30" t="n">
+        <v>50</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>09:39:04</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>70.03</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>3.841583251953125</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>256</v>
+      </c>
+      <c r="F31" t="n">
+        <v>147</v>
+      </c>
+      <c r="G31" t="n">
+        <v>16</v>
+      </c>
+      <c r="H31" t="n">
+        <v>50</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>09:40:15</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>69.97</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>3.943970680236816</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>256</v>
+      </c>
+      <c r="F32" t="n">
+        <v>147</v>
+      </c>
+      <c r="G32" t="n">
+        <v>16</v>
+      </c>
+      <c r="H32" t="n">
+        <v>100</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>09:41:33</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>78.19</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>3.914231061935425</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>256</v>
+      </c>
+      <c r="F33" t="n">
+        <v>147</v>
+      </c>
+      <c r="G33" t="n">
+        <v>16</v>
+      </c>
+      <c r="H33" t="n">
+        <v>100</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>09:42:53</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>79.05</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>3.728305101394653</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>256</v>
+      </c>
+      <c r="F34" t="n">
+        <v>147</v>
+      </c>
+      <c r="G34" t="n">
+        <v>32</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>09:44:01</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>68.17</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>3.788824558258057</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>256</v>
+      </c>
+      <c r="F35" t="n">
+        <v>147</v>
+      </c>
+      <c r="G35" t="n">
+        <v>32</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>09:45:07</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>65.45</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>3.914554834365845</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>256</v>
+      </c>
+      <c r="F36" t="n">
+        <v>147</v>
+      </c>
+      <c r="G36" t="n">
+        <v>32</v>
+      </c>
+      <c r="H36" t="n">
+        <v>50</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>09:46:19</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>71.52</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>3.805821895599365</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>256</v>
+      </c>
+      <c r="F37" t="n">
+        <v>147</v>
+      </c>
+      <c r="G37" t="n">
+        <v>32</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>09:47:32</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>3.822142601013184</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>256</v>
+      </c>
+      <c r="F38" t="n">
+        <v>147</v>
+      </c>
+      <c r="G38" t="n">
+        <v>32</v>
+      </c>
+      <c r="H38" t="n">
+        <v>100</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>09:48:52</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>80.13</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>4.004695415496826</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>256</v>
+      </c>
+      <c r="F39" t="n">
+        <v>147</v>
+      </c>
+      <c r="G39" t="n">
+        <v>32</v>
+      </c>
+      <c r="H39" t="n">
+        <v>100</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>09:50:13</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>80.63</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>3.704513311386108</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>256</v>
+      </c>
+      <c r="F40" t="n">
+        <v>147</v>
+      </c>
+      <c r="G40" t="n">
+        <v>16</v>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>09:51:21</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>67.03</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>3.728540182113647</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>256</v>
+      </c>
+      <c r="F41" t="n">
+        <v>147</v>
+      </c>
+      <c r="G41" t="n">
+        <v>16</v>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>09:52:28</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>3.665476322174072</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>256</v>
+      </c>
+      <c r="F42" t="n">
+        <v>147</v>
+      </c>
+      <c r="G42" t="n">
+        <v>16</v>
+      </c>
+      <c r="H42" t="n">
+        <v>50</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>09:53:40</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>3.674721240997314</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>256</v>
+      </c>
+      <c r="F43" t="n">
+        <v>147</v>
+      </c>
+      <c r="G43" t="n">
+        <v>16</v>
+      </c>
+      <c r="H43" t="n">
+        <v>50</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>09:54:52</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>71.56999999999999</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>3.695742607116699</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>256</v>
+      </c>
+      <c r="F44" t="n">
+        <v>147</v>
+      </c>
+      <c r="G44" t="n">
+        <v>16</v>
+      </c>
+      <c r="H44" t="n">
+        <v>100</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>09:56:13</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>81.04000000000001</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>3.726359605789185</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>256</v>
+      </c>
+      <c r="F45" t="n">
+        <v>147</v>
+      </c>
+      <c r="G45" t="n">
+        <v>16</v>
+      </c>
+      <c r="H45" t="n">
+        <v>100</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>09:57:33</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>78.83</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>3.741352558135986</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>256</v>
+      </c>
+      <c r="F46" t="n">
+        <v>147</v>
+      </c>
+      <c r="G46" t="n">
+        <v>32</v>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>09:58:41</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>3.760024309158325</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>256</v>
+      </c>
+      <c r="F47" t="n">
+        <v>147</v>
+      </c>
+      <c r="G47" t="n">
+        <v>32</v>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>09:59:48</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>66.39</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>3.672654628753662</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>256</v>
+      </c>
+      <c r="F48" t="n">
+        <v>147</v>
+      </c>
+      <c r="G48" t="n">
+        <v>32</v>
+      </c>
+      <c r="H48" t="n">
+        <v>50</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>10:01:03</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>74.54000000000001</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>3.69697642326355</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>256</v>
+      </c>
+      <c r="F49" t="n">
+        <v>147</v>
+      </c>
+      <c r="G49" t="n">
+        <v>32</v>
+      </c>
+      <c r="H49" t="n">
+        <v>50</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>10:02:16</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>72.26000000000001</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>3.714130163192749</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>256</v>
+      </c>
+      <c r="F50" t="n">
+        <v>147</v>
+      </c>
+      <c r="G50" t="n">
+        <v>32</v>
+      </c>
+      <c r="H50" t="n">
+        <v>100</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>10:03:40</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>82.90000000000001</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>3.787741661071777</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, label</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>256</v>
+      </c>
+      <c r="F51" t="n">
+        <v>147</v>
+      </c>
+      <c r="G51" t="n">
+        <v>32</v>
+      </c>
+      <c r="H51" t="n">
+        <v>100</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>10:05:03</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>82.42</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>3.729133367538452</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>256</v>
+      </c>
+      <c r="F52" t="n">
+        <v>147</v>
+      </c>
+      <c r="G52" t="n">
+        <v>16</v>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>10:06:13</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>69.34</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3.706898212432861</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>256</v>
+      </c>
+      <c r="F53" t="n">
+        <v>147</v>
+      </c>
+      <c r="G53" t="n">
+        <v>16</v>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>10:07:19</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>3.694941997528076</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>256</v>
+      </c>
+      <c r="F54" t="n">
+        <v>147</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16</v>
+      </c>
+      <c r="H54" t="n">
+        <v>50</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>10:08:33</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>73.54000000000001</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>3.683424949645996</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>256</v>
+      </c>
+      <c r="F55" t="n">
+        <v>147</v>
+      </c>
+      <c r="G55" t="n">
+        <v>16</v>
+      </c>
+      <c r="H55" t="n">
+        <v>50</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>10:09:46</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>71.56</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>3.703777551651001</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>256</v>
+      </c>
+      <c r="F56" t="n">
+        <v>147</v>
+      </c>
+      <c r="G56" t="n">
+        <v>16</v>
+      </c>
+      <c r="H56" t="n">
+        <v>100</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>10:11:07</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>80.45999999999999</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>3.708266496658325</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>256</v>
+      </c>
+      <c r="F57" t="n">
+        <v>147</v>
+      </c>
+      <c r="G57" t="n">
+        <v>16</v>
+      </c>
+      <c r="H57" t="n">
+        <v>100</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>10:12:27</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>80.06</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>3.744198083877563</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>256</v>
+      </c>
+      <c r="F58" t="n">
+        <v>147</v>
+      </c>
+      <c r="G58" t="n">
+        <v>32</v>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>10:13:35</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>66.86</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>3.72753381729126</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>256</v>
+      </c>
+      <c r="F59" t="n">
+        <v>147</v>
+      </c>
+      <c r="G59" t="n">
+        <v>32</v>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>10:14:41</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>3.676249742507935</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>256</v>
+      </c>
+      <c r="F60" t="n">
+        <v>147</v>
+      </c>
+      <c r="G60" t="n">
+        <v>32</v>
+      </c>
+      <c r="H60" t="n">
+        <v>50</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>10:15:56</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>74.34</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>3.664829015731812</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>256</v>
+      </c>
+      <c r="F61" t="n">
+        <v>147</v>
+      </c>
+      <c r="G61" t="n">
+        <v>32</v>
+      </c>
+      <c r="H61" t="n">
+        <v>50</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>10:17:11</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>73.86</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>3.766549348831177</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>256</v>
+      </c>
+      <c r="F62" t="n">
+        <v>147</v>
+      </c>
+      <c r="G62" t="n">
+        <v>32</v>
+      </c>
+      <c r="H62" t="n">
+        <v>100</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>10:18:39</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>86.98</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>3.722511768341064</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>lst, slope, discharge, ndvi, label</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>256</v>
+      </c>
+      <c r="F63" t="n">
+        <v>147</v>
+      </c>
+      <c r="G63" t="n">
+        <v>32</v>
+      </c>
+      <c r="H63" t="n">
+        <v>100</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>10:20:06</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>87.16</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>3.796441078186035</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>256</v>
+      </c>
+      <c r="F64" t="n">
+        <v>147</v>
+      </c>
+      <c r="G64" t="n">
+        <v>16</v>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>10:21:13</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>66.12</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>3.724769115447998</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>256</v>
+      </c>
+      <c r="F65" t="n">
+        <v>147</v>
+      </c>
+      <c r="G65" t="n">
+        <v>16</v>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>10:22:18</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>3.907994031906128</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>256</v>
+      </c>
+      <c r="F66" t="n">
+        <v>147</v>
+      </c>
+      <c r="G66" t="n">
+        <v>16</v>
+      </c>
+      <c r="H66" t="n">
+        <v>50</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>10:23:29</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>70.11</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>3.813082695007324</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>256</v>
+      </c>
+      <c r="F67" t="n">
+        <v>147</v>
+      </c>
+      <c r="G67" t="n">
+        <v>16</v>
+      </c>
+      <c r="H67" t="n">
+        <v>50</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>10:24:39</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>70.31999999999999</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>3.829134941101074</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>256</v>
+      </c>
+      <c r="F68" t="n">
+        <v>147</v>
+      </c>
+      <c r="G68" t="n">
+        <v>16</v>
+      </c>
+      <c r="H68" t="n">
+        <v>100</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>10:25:58</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>78.27</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>4.012864589691162</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>256</v>
+      </c>
+      <c r="F69" t="n">
+        <v>147</v>
+      </c>
+      <c r="G69" t="n">
+        <v>16</v>
+      </c>
+      <c r="H69" t="n">
+        <v>100</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>10:27:16</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>78</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>3.734843254089355</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>256</v>
+      </c>
+      <c r="F70" t="n">
+        <v>147</v>
+      </c>
+      <c r="G70" t="n">
+        <v>32</v>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>10:28:22</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>3.676263332366943</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>256</v>
+      </c>
+      <c r="F71" t="n">
+        <v>147</v>
+      </c>
+      <c r="G71" t="n">
+        <v>32</v>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>10:29:27</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>65.06</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>3.800814867019653</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>256</v>
+      </c>
+      <c r="F72" t="n">
+        <v>147</v>
+      </c>
+      <c r="G72" t="n">
+        <v>32</v>
+      </c>
+      <c r="H72" t="n">
+        <v>50</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>10:30:38</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>70.37</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>3.782418727874756</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>256</v>
+      </c>
+      <c r="F73" t="n">
+        <v>147</v>
+      </c>
+      <c r="G73" t="n">
+        <v>32</v>
+      </c>
+      <c r="H73" t="n">
+        <v>50</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>10:31:49</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>70.42</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>3.952747344970703</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>lst, no label</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>256</v>
+      </c>
+      <c r="F74" t="n">
+        <v>147</v>
+      </c>
+      <c r="G74" t="n">
+        <v>32</v>
+      </c>
+      <c r="H74" t="n">
+        <v>100</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>10:33:08</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>4.091062545776367</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>lst, label</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>256</v>
+      </c>
+      <c r="F75" t="n">
+        <v>147</v>
+      </c>
+      <c r="G75" t="n">
+        <v>32</v>
+      </c>
+      <c r="H75" t="n">
+        <v>100</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>10:34:27</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>78.93000000000001</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.596295118331909</v>
+        <v>2.857109546661377</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -516,16 +516,16 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>16:53:12</t>
+          <t>14:41:31</t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>64.91</v>
+        <v>80.09</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -535,7 +535,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3.613289356231689</v>
+        <v>2.916941165924072</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -562,34 +562,34 @@
         <v>16</v>
       </c>
       <c r="H3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>16:54:33</t>
+          <t>14:42:51</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>79.97</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.633750438690186</v>
+        <v>2.985122442245483</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, ndvi, label</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -612,30 +612,30 @@
         <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>16:56:19</t>
+          <t>14:44:10</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>106</v>
+        <v>78.84999999999999</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.595279932022095</v>
+        <v>2.316780567169189</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -659,23 +659,23 @@
         <v>147</v>
       </c>
       <c r="G5" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>16:57:19</t>
+          <t>14:45:49</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>59.63</v>
+        <v>98.36</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3.624424695968628</v>
+        <v>2.292251110076904</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -709,37 +709,37 @@
         <v>147</v>
       </c>
       <c r="G6" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
         <v>50</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>16:58:37</t>
+          <t>14:47:14</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>76.81999999999999</v>
+        <v>84.78</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3.803420543670654</v>
+        <v>2.356581449508667</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, ndvi, label</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -759,37 +759,37 @@
         <v>147</v>
       </c>
       <c r="G7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>17:00:11</t>
+          <t>14:48:37</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>93.75</v>
+        <v>82.72</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3.606398582458496</v>
+        <v>2.910558462142944</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, no label</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -809,23 +809,23 @@
         <v>147</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>17:01:12</t>
+          <t>14:49:56</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>61.02</v>
+        <v>77.73</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -835,11 +835,11 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3.634677648544312</v>
+        <v>2.913837194442749</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, no label</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -859,37 +859,37 @@
         <v>147</v>
       </c>
       <c r="G9" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>17:02:39</t>
+          <t>14:51:16</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>86.47</v>
+        <v>80.03</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.773883819580078</v>
+        <v>2.916579246520996</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, label</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -909,37 +909,37 @@
         <v>147</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>17:04:32</t>
+          <t>14:52:35</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>111.61</v>
+        <v>78.17</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.599435329437256</v>
+        <v>2.417842626571655</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, no label</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -962,20 +962,20 @@
         <v>32</v>
       </c>
       <c r="H11" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>17:05:33</t>
+          <t>14:54:04</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>60.39</v>
+        <v>88.59</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -985,11 +985,11 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.642707347869873</v>
+        <v>2.2405104637146</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, no label</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1016,30 +1016,30 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>17:06:50</t>
+          <t>14:55:28</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>77.26000000000001</v>
+        <v>83.61</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.665226459503174</v>
+        <v>2.244980812072754</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, ndvi, label</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1062,34 +1062,34 @@
         <v>32</v>
       </c>
       <c r="H13" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>17:08:27</t>
+          <t>14:56:54</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>95.84</v>
+        <v>85.68000000000001</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.610826969146729</v>
+        <v>2.886852502822876</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1116,16 +1116,16 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>17:09:33</t>
+          <t>14:58:13</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>65.83</v>
+        <v>78.13</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1135,11 +1135,11 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.641751050949097</v>
+        <v>2.888511419296265</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1162,34 +1162,34 @@
         <v>16</v>
       </c>
       <c r="H15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>17:10:59</t>
+          <t>14:59:33</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>84.86</v>
+        <v>79.11</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>3.629013299942017</v>
+        <v>2.889703035354614</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, label</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1212,34 +1212,34 @@
         <v>16</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>17:12:52</t>
+          <t>15:00:53</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>112.67</v>
+        <v>79.17</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.59924578666687</v>
+        <v>2.460802555084229</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1259,23 +1259,23 @@
         <v>147</v>
       </c>
       <c r="G17" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>17:13:52</t>
+          <t>15:02:35</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>59.08</v>
+        <v>100.59</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1285,11 +1285,11 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.653007745742798</v>
+        <v>2.193793535232544</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1309,37 +1309,37 @@
         <v>147</v>
       </c>
       <c r="G18" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H18" t="n">
         <v>50</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17:15:08</t>
+          <t>15:04:03</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>75.18000000000001</v>
+        <v>87.34</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.65248966217041</v>
+        <v>2.09611177444458</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
+          <t>lst, slope, discharge, label</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1359,37 +1359,37 @@
         <v>147</v>
       </c>
       <c r="G19" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H19" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>17:16:47</t>
+          <t>15:05:31</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>98.77</v>
+        <v>87.39</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3.601340293884277</v>
+        <v>2.916992425918579</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1409,23 +1409,23 @@
         <v>147</v>
       </c>
       <c r="G20" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H20" t="n">
         <v>10</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>17:17:52</t>
+          <t>15:06:49</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>64.03</v>
+        <v>76.58</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1435,11 +1435,11 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3.678736448287964</v>
+        <v>2.968321800231934</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1459,37 +1459,37 @@
         <v>147</v>
       </c>
       <c r="G21" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H21" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>17:19:13</t>
+          <t>15:08:10</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>80.73999999999999</v>
+        <v>80.18000000000001</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3.679067134857178</v>
+        <v>2.909466505050659</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, label</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1509,37 +1509,37 @@
         <v>147</v>
       </c>
       <c r="G22" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H22" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>17:20:57</t>
+          <t>15:09:31</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>103.92</v>
+        <v>79.43000000000001</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3.589860677719116</v>
+        <v>2.473945379257202</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1562,20 +1562,20 @@
         <v>32</v>
       </c>
       <c r="H23" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>17:21:57</t>
+          <t>15:11:06</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>60.25</v>
+        <v>94.87</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1585,11 +1585,11 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3.623382806777954</v>
+        <v>2.315177202224731</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, no label</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1616,30 +1616,30 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>17:23:10</t>
+          <t>15:12:37</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>71.95</v>
+        <v>89.67</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>3.792582750320435</v>
+        <v>2.375137090682983</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>lst, no label</t>
+          <t>lst, slope, discharge, label</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1662,34 +1662,34 @@
         <v>32</v>
       </c>
       <c r="H25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>2024-10-30</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>17:24:41</t>
+          <t>15:14:09</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>91.38</v>
+        <v>90.53</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3.674090147018433</v>
+        <v>2.910408735275269</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1716,16 +1716,16 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>09:20:38</t>
+          <t>15:15:28</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>65.53</v>
+        <v>78.42</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1735,11 +1735,11 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>3.712287664413452</v>
+        <v>2.784347295761108</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1766,30 +1766,30 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>09:21:40</t>
+          <t>15:16:50</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>62.04</v>
+        <v>80.72</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Physics-guided</t>
+          <t>RMSE</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>3.746084451675415</v>
+        <v>2.871328830718994</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, label</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1816,16 +1816,16 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>09:36:47</t>
+          <t>15:18:11</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>69.56999999999999</v>
+        <v>79.52</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1835,11 +1835,11 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>3.768811941146851</v>
+        <v>2.332554340362549</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1862,34 +1862,34 @@
         <v>16</v>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>09:37:54</t>
+          <t>15:19:57</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>66.11</v>
+        <v>104.88</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3.758808612823486</v>
+        <v>2.292069673538208</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1916,16 +1916,16 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>09:39:04</t>
+          <t>15:21:27</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>70.03</v>
+        <v>87.97</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -1935,11 +1935,11 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3.841583251953125</v>
+        <v>2.167747020721436</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, label</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1966,16 +1966,16 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>09:40:15</t>
+          <t>15:22:57</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>69.97</v>
+        <v>89.11</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -1985,11 +1985,11 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3.943970680236816</v>
+        <v>2.913923740386963</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -2009,37 +2009,37 @@
         <v>147</v>
       </c>
       <c r="G32" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H32" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>09:41:33</t>
+          <t>15:24:15</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>78.19</v>
+        <v>76.64</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>3.914231061935425</v>
+        <v>3.00110125541687</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -2059,23 +2059,23 @@
         <v>147</v>
       </c>
       <c r="G33" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H33" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>09:42:53</t>
+          <t>15:25:37</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>79.05</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2085,11 +2085,11 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3.728305101394653</v>
+        <v>2.902480125427246</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, label</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -2116,16 +2116,16 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>09:44:01</t>
+          <t>15:26:58</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>68.17</v>
+        <v>79.83</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2135,11 +2135,11 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3.788824558258057</v>
+        <v>2.400399923324585</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2162,34 +2162,34 @@
         <v>32</v>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>09:45:07</t>
+          <t>15:28:35</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>65.45</v>
+        <v>95.77</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3.914554834365845</v>
+        <v>2.281510591506958</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, slope, discharge, ndvi, no label</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2216,16 +2216,16 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>09:46:19</t>
+          <t>15:30:08</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>71.52</v>
+        <v>91.56999999999999</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2235,11 +2235,11 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.805821895599365</v>
+        <v>2.306507110595703</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, slope, discharge, ndvi, label</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2266,16 +2266,16 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>09:47:32</t>
+          <t>15:31:41</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>72.09999999999999</v>
+        <v>92.06999999999999</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2285,11 +2285,11 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3.822142601013184</v>
+        <v>2.846887350082397</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>lst, ndvi, no label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2309,37 +2309,37 @@
         <v>147</v>
       </c>
       <c r="G38" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H38" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>09:48:52</t>
+          <t>15:32:57</t>
         </is>
       </c>
       <c r="K38" t="n">
-        <v>80.13</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>4.004695415496826</v>
+        <v>2.777992963790894</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>lst, ndvi, label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2359,23 +2359,23 @@
         <v>147</v>
       </c>
       <c r="G39" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H39" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>09:50:13</t>
+          <t>15:34:15</t>
         </is>
       </c>
       <c r="K39" t="n">
-        <v>80.63</v>
+        <v>78.05</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2385,11 +2385,11 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3.704513311386108</v>
+        <v>3.019046068191528</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, label</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2416,16 +2416,16 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>09:51:21</t>
+          <t>15:35:33</t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>67.03</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2435,11 +2435,11 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3.728540182113647</v>
+        <v>2.353917837142944</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2462,34 +2462,34 @@
         <v>16</v>
       </c>
       <c r="H41" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>09:52:28</t>
+          <t>15:37:08</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>65.95999999999999</v>
+        <v>94.54000000000001</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3.665476322174072</v>
+        <v>2.32874608039856</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2516,16 +2516,16 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>09:53:40</t>
+          <t>15:38:31</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>71.56999999999999</v>
+        <v>82.58</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2535,11 +2535,11 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3.674721240997314</v>
+        <v>2.527446031570435</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, label</t>
+          <t>lst, label</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2566,16 +2566,16 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>09:54:52</t>
+          <t>15:39:54</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>71.56999999999999</v>
+        <v>82.27</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2585,11 +2585,11 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3.695742607116699</v>
+        <v>2.915089130401611</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2609,37 +2609,37 @@
         <v>147</v>
       </c>
       <c r="G44" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H44" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>09:56:13</t>
+          <t>15:41:08</t>
         </is>
       </c>
       <c r="K44" t="n">
-        <v>81.04000000000001</v>
+        <v>73.67</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3.726359605789185</v>
+        <v>2.913786172866821</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2659,23 +2659,23 @@
         <v>147</v>
       </c>
       <c r="G45" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H45" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>09:57:33</t>
+          <t>15:42:27</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>78.83</v>
+        <v>79.56</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -2685,11 +2685,11 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>3.741352558135986</v>
+        <v>2.937194108963013</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, label</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2716,16 +2716,16 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>09:58:41</t>
+          <t>15:43:45</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>67.90000000000001</v>
+        <v>76.93000000000001</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -2735,11 +2735,11 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3.760024309158325</v>
+        <v>2.429701328277588</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2762,34 +2762,34 @@
         <v>32</v>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>09:59:48</t>
+          <t>15:45:11</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>66.39</v>
+        <v>86.56999999999999</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>RMSE</t>
+          <t>Physics-guided</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3.672654628753662</v>
+        <v>2.3469078540802</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, no label</t>
+          <t>lst, no label</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2816,16 +2816,16 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>10:01:03</t>
+          <t>15:46:33</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>74.54000000000001</v>
+        <v>81.19</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -2835,11 +2835,11 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>3.69697642326355</v>
+        <v>2.408145427703857</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>lst, slope, discharge, label</t>
+          <t>lst, label</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2866,1318 +2866,18 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>2024-10-31</t>
+          <t>2024-11-01</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>10:02:16</t>
+          <t>15:47:59</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>72.26000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="L49" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>3.714130163192749</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, no label</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E50" t="n">
-        <v>256</v>
-      </c>
-      <c r="F50" t="n">
-        <v>147</v>
-      </c>
-      <c r="G50" t="n">
-        <v>32</v>
-      </c>
-      <c r="H50" t="n">
-        <v>100</v>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>10:03:40</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>82.90000000000001</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>3.787741661071777</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, label</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E51" t="n">
-        <v>256</v>
-      </c>
-      <c r="F51" t="n">
-        <v>147</v>
-      </c>
-      <c r="G51" t="n">
-        <v>32</v>
-      </c>
-      <c r="H51" t="n">
-        <v>100</v>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>10:05:03</t>
-        </is>
-      </c>
-      <c r="K51" t="n">
-        <v>82.42</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>3.729133367538452</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>256</v>
-      </c>
-      <c r="F52" t="n">
-        <v>147</v>
-      </c>
-      <c r="G52" t="n">
-        <v>16</v>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>10:06:13</t>
-        </is>
-      </c>
-      <c r="K52" t="n">
-        <v>69.34</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>3.706898212432861</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E53" t="n">
-        <v>256</v>
-      </c>
-      <c r="F53" t="n">
-        <v>147</v>
-      </c>
-      <c r="G53" t="n">
-        <v>16</v>
-      </c>
-      <c r="H53" t="n">
-        <v>10</v>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>10:07:19</t>
-        </is>
-      </c>
-      <c r="K53" t="n">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>3.694941997528076</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>256</v>
-      </c>
-      <c r="F54" t="n">
-        <v>147</v>
-      </c>
-      <c r="G54" t="n">
-        <v>16</v>
-      </c>
-      <c r="H54" t="n">
-        <v>50</v>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>10:08:33</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>73.54000000000001</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="n">
-        <v>3.683424949645996</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E55" t="n">
-        <v>256</v>
-      </c>
-      <c r="F55" t="n">
-        <v>147</v>
-      </c>
-      <c r="G55" t="n">
-        <v>16</v>
-      </c>
-      <c r="H55" t="n">
-        <v>50</v>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>10:09:46</t>
-        </is>
-      </c>
-      <c r="K55" t="n">
-        <v>71.56</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>3.703777551651001</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E56" t="n">
-        <v>256</v>
-      </c>
-      <c r="F56" t="n">
-        <v>147</v>
-      </c>
-      <c r="G56" t="n">
-        <v>16</v>
-      </c>
-      <c r="H56" t="n">
-        <v>100</v>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>10:11:07</t>
-        </is>
-      </c>
-      <c r="K56" t="n">
-        <v>80.45999999999999</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>3.708266496658325</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E57" t="n">
-        <v>256</v>
-      </c>
-      <c r="F57" t="n">
-        <v>147</v>
-      </c>
-      <c r="G57" t="n">
-        <v>16</v>
-      </c>
-      <c r="H57" t="n">
-        <v>100</v>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>10:12:27</t>
-        </is>
-      </c>
-      <c r="K57" t="n">
-        <v>80.06</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>3.744198083877563</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E58" t="n">
-        <v>256</v>
-      </c>
-      <c r="F58" t="n">
-        <v>147</v>
-      </c>
-      <c r="G58" t="n">
-        <v>32</v>
-      </c>
-      <c r="H58" t="n">
-        <v>10</v>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>10:13:35</t>
-        </is>
-      </c>
-      <c r="K58" t="n">
-        <v>66.86</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>3.72753381729126</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E59" t="n">
-        <v>256</v>
-      </c>
-      <c r="F59" t="n">
-        <v>147</v>
-      </c>
-      <c r="G59" t="n">
-        <v>32</v>
-      </c>
-      <c r="H59" t="n">
-        <v>10</v>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>10:14:41</t>
-        </is>
-      </c>
-      <c r="K59" t="n">
-        <v>65.65000000000001</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>3.676249742507935</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>256</v>
-      </c>
-      <c r="F60" t="n">
-        <v>147</v>
-      </c>
-      <c r="G60" t="n">
-        <v>32</v>
-      </c>
-      <c r="H60" t="n">
-        <v>50</v>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>10:15:56</t>
-        </is>
-      </c>
-      <c r="K60" t="n">
-        <v>74.34</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="n">
-        <v>3.664829015731812</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E61" t="n">
-        <v>256</v>
-      </c>
-      <c r="F61" t="n">
-        <v>147</v>
-      </c>
-      <c r="G61" t="n">
-        <v>32</v>
-      </c>
-      <c r="H61" t="n">
-        <v>50</v>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>10:17:11</t>
-        </is>
-      </c>
-      <c r="K61" t="n">
-        <v>73.86</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="n">
-        <v>3.766549348831177</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, no label</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>256</v>
-      </c>
-      <c r="F62" t="n">
-        <v>147</v>
-      </c>
-      <c r="G62" t="n">
-        <v>32</v>
-      </c>
-      <c r="H62" t="n">
-        <v>100</v>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>10:18:39</t>
-        </is>
-      </c>
-      <c r="K62" t="n">
-        <v>86.98</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>3.722511768341064</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>lst, slope, discharge, ndvi, label</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>256</v>
-      </c>
-      <c r="F63" t="n">
-        <v>147</v>
-      </c>
-      <c r="G63" t="n">
-        <v>32</v>
-      </c>
-      <c r="H63" t="n">
-        <v>100</v>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>10:20:06</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
-        <v>87.16</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>3.796441078186035</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
-        <v>256</v>
-      </c>
-      <c r="F64" t="n">
-        <v>147</v>
-      </c>
-      <c r="G64" t="n">
-        <v>16</v>
-      </c>
-      <c r="H64" t="n">
-        <v>10</v>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>10:21:13</t>
-        </is>
-      </c>
-      <c r="K64" t="n">
-        <v>66.12</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
-        <v>3.724769115447998</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>256</v>
-      </c>
-      <c r="F65" t="n">
-        <v>147</v>
-      </c>
-      <c r="G65" t="n">
-        <v>16</v>
-      </c>
-      <c r="H65" t="n">
-        <v>10</v>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>10:22:18</t>
-        </is>
-      </c>
-      <c r="K65" t="n">
-        <v>65.2</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>3.907994031906128</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>256</v>
-      </c>
-      <c r="F66" t="n">
-        <v>147</v>
-      </c>
-      <c r="G66" t="n">
-        <v>16</v>
-      </c>
-      <c r="H66" t="n">
-        <v>50</v>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>10:23:29</t>
-        </is>
-      </c>
-      <c r="K66" t="n">
-        <v>70.11</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>3.813082695007324</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>256</v>
-      </c>
-      <c r="F67" t="n">
-        <v>147</v>
-      </c>
-      <c r="G67" t="n">
-        <v>16</v>
-      </c>
-      <c r="H67" t="n">
-        <v>50</v>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>10:24:39</t>
-        </is>
-      </c>
-      <c r="K67" t="n">
-        <v>70.31999999999999</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>3.829134941101074</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E68" t="n">
-        <v>256</v>
-      </c>
-      <c r="F68" t="n">
-        <v>147</v>
-      </c>
-      <c r="G68" t="n">
-        <v>16</v>
-      </c>
-      <c r="H68" t="n">
-        <v>100</v>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>10:25:58</t>
-        </is>
-      </c>
-      <c r="K68" t="n">
-        <v>78.27</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>4.012864589691162</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E69" t="n">
-        <v>256</v>
-      </c>
-      <c r="F69" t="n">
-        <v>147</v>
-      </c>
-      <c r="G69" t="n">
-        <v>16</v>
-      </c>
-      <c r="H69" t="n">
-        <v>100</v>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>10:27:16</t>
-        </is>
-      </c>
-      <c r="K69" t="n">
-        <v>78</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>3.734843254089355</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E70" t="n">
-        <v>256</v>
-      </c>
-      <c r="F70" t="n">
-        <v>147</v>
-      </c>
-      <c r="G70" t="n">
-        <v>32</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10</v>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>10:28:22</t>
-        </is>
-      </c>
-      <c r="K70" t="n">
-        <v>65.59999999999999</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>3.676263332366943</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>256</v>
-      </c>
-      <c r="F71" t="n">
-        <v>147</v>
-      </c>
-      <c r="G71" t="n">
-        <v>32</v>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>10:29:27</t>
-        </is>
-      </c>
-      <c r="K71" t="n">
-        <v>65.06</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>3.800814867019653</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E72" t="n">
-        <v>256</v>
-      </c>
-      <c r="F72" t="n">
-        <v>147</v>
-      </c>
-      <c r="G72" t="n">
-        <v>32</v>
-      </c>
-      <c r="H72" t="n">
-        <v>50</v>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>10:30:38</t>
-        </is>
-      </c>
-      <c r="K72" t="n">
-        <v>70.37</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>3.782418727874756</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E73" t="n">
-        <v>256</v>
-      </c>
-      <c r="F73" t="n">
-        <v>147</v>
-      </c>
-      <c r="G73" t="n">
-        <v>32</v>
-      </c>
-      <c r="H73" t="n">
-        <v>50</v>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>10:31:49</t>
-        </is>
-      </c>
-      <c r="K73" t="n">
-        <v>70.42</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>3.952747344970703</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>lst, no label</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E74" t="n">
-        <v>256</v>
-      </c>
-      <c r="F74" t="n">
-        <v>147</v>
-      </c>
-      <c r="G74" t="n">
-        <v>32</v>
-      </c>
-      <c r="H74" t="n">
-        <v>100</v>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>10:33:08</t>
-        </is>
-      </c>
-      <c r="K74" t="n">
-        <v>78.59999999999999</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>4.091062545776367</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>lst, label</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>13 rivers</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>wt</t>
-        </is>
-      </c>
-      <c r="E75" t="n">
-        <v>256</v>
-      </c>
-      <c r="F75" t="n">
-        <v>147</v>
-      </c>
-      <c r="G75" t="n">
-        <v>32</v>
-      </c>
-      <c r="H75" t="n">
-        <v>100</v>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>2024-10-31</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>10:34:27</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>78.93000000000001</v>
-      </c>
-      <c r="L75" t="inlineStr">
         <is>
           <t>RMSE</t>
         </is>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,6 +683,306 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.845927063154587</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label, month</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>256</v>
+      </c>
+      <c r="F6" t="n">
+        <v>147</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16</v>
+      </c>
+      <c r="H6" t="n">
+        <v>50</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>13:30:01</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>92.51000000000001</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.846311969011912</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>147</v>
+      </c>
+      <c r="G7" t="n">
+        <v>16</v>
+      </c>
+      <c r="H7" t="n">
+        <v>50</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>13:32:44</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>89.02</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.797113489141204</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>lst, ndvi, discharge, no label</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>256</v>
+      </c>
+      <c r="F8" t="n">
+        <v>147</v>
+      </c>
+      <c r="G8" t="n">
+        <v>16</v>
+      </c>
+      <c r="H8" t="n">
+        <v>50</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>13:37:48</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>87.23999999999999</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.879650944482463</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>lst, ndvi, discharge, label, month</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>147</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16</v>
+      </c>
+      <c r="H9" t="n">
+        <v>50</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14:03:41</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>89.02</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.887019999872341</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ndvi, discharge, label, month</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>256</v>
+      </c>
+      <c r="F10" t="n">
+        <v>147</v>
+      </c>
+      <c r="G10" t="n">
+        <v>16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>50</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>15:34:15</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>88.04000000000001</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.668979276069117</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>slope, discharge, label, month</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>256</v>
+      </c>
+      <c r="F11" t="n">
+        <v>147</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16</v>
+      </c>
+      <c r="H11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>16:07:37</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,6 +983,56 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.593778900773314</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>slope, discharge, ndvi, label, month</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>13 rivers</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>256</v>
+      </c>
+      <c r="F12" t="n">
+        <v>147</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16</v>
+      </c>
+      <c r="H12" t="n">
+        <v>50</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>13:40:47</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>94.34999999999999</v>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/img_wise_CNN_results.xlsx
+++ b/results/img_wise_CNN_results.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1033,6 +1033,156 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>9.968550149492266</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>256</v>
+      </c>
+      <c r="F13" t="n">
+        <v>955</v>
+      </c>
+      <c r="G13" t="n">
+        <v>64</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>17:27:07</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>29.31</v>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10.05667796099365</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>lst, ndvi, no label</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>256</v>
+      </c>
+      <c r="F14" t="n">
+        <v>955</v>
+      </c>
+      <c r="G14" t="n">
+        <v>64</v>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>17:29:29</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>29.33</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10.36232668360636</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>lst, ndvi, label, month</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>47 rivers</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>wt</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>256</v>
+      </c>
+      <c r="F15" t="n">
+        <v>955</v>
+      </c>
+      <c r="G15" t="n">
+        <v>64</v>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>17:31:45</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
